--- a/artfynd/A 18972-2022.xlsx
+++ b/artfynd/A 18972-2022.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111268761</v>
+        <v>111268603</v>
       </c>
       <c r="B3" t="n">
-        <v>56543</v>
+        <v>78605</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,44 +805,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Andersfloberget, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>571130.9589845988</v>
+        <v>571130.1388992143</v>
       </c>
       <c r="R3" t="n">
-        <v>6988040.539964275</v>
+        <v>6988036.43340659</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -911,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111270547</v>
+        <v>111268594</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>571094.5908530375</v>
+        <v>571130.1388992143</v>
       </c>
       <c r="R4" t="n">
-        <v>6988060.188313573</v>
+        <v>6988036.43340659</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1024,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111270085</v>
+        <v>111270304</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>90854</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>2079</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>571121.5969327085</v>
+        <v>571134.5035382169</v>
       </c>
       <c r="R5" t="n">
-        <v>6988052.601208006</v>
+        <v>6988086.500635022</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1137,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111268432</v>
+        <v>111268637</v>
       </c>
       <c r="B6" t="n">
-        <v>89686</v>
+        <v>94134</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>658</v>
+        <v>53</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>571112.7410018155</v>
+        <v>571130.1388992143</v>
       </c>
       <c r="R6" t="n">
-        <v>6988041.504683513</v>
+        <v>6988036.43340659</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1250,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111268637</v>
+        <v>111270482</v>
       </c>
       <c r="B7" t="n">
-        <v>94134</v>
+        <v>78107</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1291,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>571130.1388992143</v>
+        <v>571106.3518894102</v>
       </c>
       <c r="R7" t="n">
-        <v>6988036.43340659</v>
+        <v>6988084.068234245</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1363,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111270304</v>
+        <v>111270547</v>
       </c>
       <c r="B8" t="n">
-        <v>90854</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,21 +1374,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2079</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1404,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>571134.5035382169</v>
+        <v>571094.5908530375</v>
       </c>
       <c r="R8" t="n">
-        <v>6988086.500635022</v>
+        <v>6988060.188313573</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1476,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111268486</v>
+        <v>111268432</v>
       </c>
       <c r="B9" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1488,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1589,7 +1584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111268594</v>
+        <v>111270085</v>
       </c>
       <c r="B10" t="n">
         <v>78578</v>
@@ -1630,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>571130.1388992143</v>
+        <v>571121.5969327085</v>
       </c>
       <c r="R10" t="n">
-        <v>6988036.43340659</v>
+        <v>6988052.601208006</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1702,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111268603</v>
+        <v>111268761</v>
       </c>
       <c r="B11" t="n">
-        <v>78605</v>
+        <v>56543</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1714,39 +1709,44 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6462</v>
+        <v>103021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Andersfloberget, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>571130.1388992143</v>
+        <v>571130.9589845988</v>
       </c>
       <c r="R11" t="n">
-        <v>6988036.43340659</v>
+        <v>6988040.539964275</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111270482</v>
+        <v>111268486</v>
       </c>
       <c r="B12" t="n">
-        <v>78107</v>
+        <v>89845</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1827,25 +1827,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>1209</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>571106.3518894102</v>
+        <v>571112.7410018155</v>
       </c>
       <c r="R12" t="n">
-        <v>6988084.068234245</v>
+        <v>6988041.504683513</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111313890</v>
+        <v>111313898</v>
       </c>
       <c r="B13" t="n">
         <v>78578</v>
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>571354.5411700107</v>
+        <v>571351.9059665259</v>
       </c>
       <c r="R13" t="n">
-        <v>6988072.237880026</v>
+        <v>6988109.431611928</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111313818</v>
+        <v>111313798</v>
       </c>
       <c r="B14" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2056,25 +2056,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2087,10 +2087,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>571240.5602681458</v>
+        <v>571228.7976406375</v>
       </c>
       <c r="R14" t="n">
-        <v>6988062.926285702</v>
+        <v>6988059.94306163</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111313756</v>
+        <v>111313831</v>
       </c>
       <c r="B15" t="n">
         <v>89686</v>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>571164.4958795183</v>
+        <v>571237.6332526817</v>
       </c>
       <c r="R15" t="n">
-        <v>6988067.167745766</v>
+        <v>6988071.947993435</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111313831</v>
+        <v>111313861</v>
       </c>
       <c r="B16" t="n">
         <v>89686</v>
@@ -2319,10 +2319,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>571237.6332526817</v>
+        <v>571256.3031592042</v>
       </c>
       <c r="R16" t="n">
-        <v>6988071.947993435</v>
+        <v>6988091.891103382</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2392,10 +2392,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111313631</v>
+        <v>111313595</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>89351</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2408,21 +2408,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>112</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2435,10 +2435,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>571138.7267770634</v>
+        <v>571132.8156422803</v>
       </c>
       <c r="R17" t="n">
-        <v>6988059.789979875</v>
+        <v>6988059.660764839</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111313781</v>
+        <v>111313877</v>
       </c>
       <c r="B18" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2524,21 +2524,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2551,10 +2551,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>571215.700694268</v>
+        <v>571314.955354398</v>
       </c>
       <c r="R18" t="n">
-        <v>6988055.567805857</v>
+        <v>6988051.835632154</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2624,10 +2624,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111313798</v>
+        <v>111313631</v>
       </c>
       <c r="B19" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2636,25 +2636,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2667,10 +2667,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>571228.7976406375</v>
+        <v>571138.7267770634</v>
       </c>
       <c r="R19" t="n">
-        <v>6988059.94306163</v>
+        <v>6988059.789979875</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2740,10 +2740,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111313840</v>
+        <v>111313756</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2752,31 +2752,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2784,10 +2783,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>571267.7429622577</v>
+        <v>571164.4958795183</v>
       </c>
       <c r="R20" t="n">
-        <v>6988068.064374451</v>
+        <v>6988067.167745766</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2857,7 +2856,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111313861</v>
+        <v>111313781</v>
       </c>
       <c r="B21" t="n">
         <v>89686</v>
@@ -2900,10 +2899,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>571256.3031592042</v>
+        <v>571215.700694268</v>
       </c>
       <c r="R21" t="n">
-        <v>6988091.891103382</v>
+        <v>6988055.567805857</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2973,10 +2972,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111313877</v>
+        <v>111313818</v>
       </c>
       <c r="B22" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2989,21 +2988,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3016,10 +3015,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>571314.955354398</v>
+        <v>571240.5602681458</v>
       </c>
       <c r="R22" t="n">
-        <v>6988051.835632154</v>
+        <v>6988062.926285702</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3089,10 +3088,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111313595</v>
+        <v>111313909</v>
       </c>
       <c r="B23" t="n">
-        <v>89351</v>
+        <v>89686</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3105,21 +3104,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>112</v>
+        <v>658</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3132,10 +3131,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>571132.8156422803</v>
+        <v>571382.364105275</v>
       </c>
       <c r="R23" t="n">
-        <v>6988059.660764839</v>
+        <v>6988089.656736836</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3205,10 +3204,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111313909</v>
+        <v>111313840</v>
       </c>
       <c r="B24" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3217,30 +3216,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3248,10 +3248,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>571382.364105275</v>
+        <v>571267.7429622577</v>
       </c>
       <c r="R24" t="n">
-        <v>6988089.656736836</v>
+        <v>6988068.064374451</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111313898</v>
+        <v>111313890</v>
       </c>
       <c r="B25" t="n">
         <v>78578</v>
@@ -3364,10 +3364,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>571351.9059665259</v>
+        <v>571354.5411700107</v>
       </c>
       <c r="R25" t="n">
-        <v>6988109.431611928</v>
+        <v>6988072.237880026</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111439399</v>
+        <v>111438897</v>
       </c>
       <c r="B26" t="n">
         <v>78578</v>
@@ -3478,10 +3478,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>571513.3871347769</v>
+        <v>571342.05486291</v>
       </c>
       <c r="R26" t="n">
-        <v>6988089.353432911</v>
+        <v>6988019.26613469</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3550,10 +3550,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111439556</v>
+        <v>111440132</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3566,21 +3566,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3591,10 +3591,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>571541.5030949884</v>
+        <v>571561.4085783331</v>
       </c>
       <c r="R27" t="n">
-        <v>6988072.708431445</v>
+        <v>6987995.007176694</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111438212</v>
+        <v>111440172</v>
       </c>
       <c r="B28" t="n">
         <v>78578</v>
@@ -3704,10 +3704,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>571110.4113759904</v>
+        <v>571557.1164776806</v>
       </c>
       <c r="R28" t="n">
-        <v>6988002.384436167</v>
+        <v>6988003.998814187</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3776,10 +3776,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111440132</v>
+        <v>111440455</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3792,21 +3792,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3817,10 +3817,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>571561.4085783331</v>
+        <v>571485.2187846474</v>
       </c>
       <c r="R29" t="n">
-        <v>6987995.007176694</v>
+        <v>6987922.006598755</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111438897</v>
+        <v>111438961</v>
       </c>
       <c r="B30" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3905,21 +3905,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3930,10 +3930,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>571342.05486291</v>
+        <v>571355.5533441483</v>
       </c>
       <c r="R30" t="n">
-        <v>6988019.26613469</v>
+        <v>6987984.581054003</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4002,10 +4002,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111438249</v>
+        <v>111439277</v>
       </c>
       <c r="B31" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4018,21 +4018,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>571110.4113759904</v>
+        <v>571513.3871347769</v>
       </c>
       <c r="R31" t="n">
-        <v>6988002.384436167</v>
+        <v>6988089.353432911</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111440357</v>
+        <v>111438823</v>
       </c>
       <c r="B32" t="n">
         <v>78578</v>
@@ -4156,10 +4156,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>571472.8873933584</v>
+        <v>571355.5533441483</v>
       </c>
       <c r="R32" t="n">
-        <v>6987944.905536451</v>
+        <v>6987984.581054003</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111440415</v>
+        <v>111439199</v>
       </c>
       <c r="B33" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4244,21 +4244,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>571485.2187846474</v>
+        <v>571460.5263831713</v>
       </c>
       <c r="R33" t="n">
-        <v>6987922.006598755</v>
+        <v>6988072.746377321</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4341,10 +4341,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111438342</v>
+        <v>111439556</v>
       </c>
       <c r="B34" t="n">
-        <v>77268</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4357,21 +4357,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4382,10 +4382,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>571171.3525270248</v>
+        <v>571541.5030949884</v>
       </c>
       <c r="R34" t="n">
-        <v>6988003.262354148</v>
+        <v>6988072.708431445</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4454,10 +4454,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111440195</v>
+        <v>111439000</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4470,21 +4470,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4495,10 +4495,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>571540.7114327301</v>
+        <v>571401.1370697253</v>
       </c>
       <c r="R35" t="n">
-        <v>6987984.557469011</v>
+        <v>6988021.924799537</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111439000</v>
+        <v>111438342</v>
       </c>
       <c r="B36" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4583,21 +4583,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>571401.1370697253</v>
+        <v>571171.3525270248</v>
       </c>
       <c r="R36" t="n">
-        <v>6988021.924799537</v>
+        <v>6988003.262354148</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4680,10 +4680,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111438961</v>
+        <v>111438249</v>
       </c>
       <c r="B37" t="n">
-        <v>89686</v>
+        <v>77267</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4696,21 +4696,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>658</v>
+        <v>6446</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4721,10 +4721,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>571355.5533441483</v>
+        <v>571110.4113759904</v>
       </c>
       <c r="R37" t="n">
-        <v>6987984.581054003</v>
+        <v>6988002.384436167</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4793,10 +4793,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111440237</v>
+        <v>111440195</v>
       </c>
       <c r="B38" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4809,21 +4809,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4834,10 +4834,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>571532.8559679713</v>
+        <v>571540.7114327301</v>
       </c>
       <c r="R38" t="n">
-        <v>6987969.392762338</v>
+        <v>6987984.557469011</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111439199</v>
+        <v>111438212</v>
       </c>
       <c r="B39" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4922,21 +4922,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4947,10 +4947,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>571460.5263831713</v>
+        <v>571110.4113759904</v>
       </c>
       <c r="R39" t="n">
-        <v>6988072.746377321</v>
+        <v>6988002.384436167</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5019,10 +5019,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111440172</v>
+        <v>111440237</v>
       </c>
       <c r="B40" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5035,21 +5035,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5060,10 +5060,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>571557.1164776806</v>
+        <v>571532.8559679713</v>
       </c>
       <c r="R40" t="n">
-        <v>6988003.998814187</v>
+        <v>6987969.392762338</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111438823</v>
+        <v>111440357</v>
       </c>
       <c r="B41" t="n">
         <v>78578</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>571355.5533441483</v>
+        <v>571472.8873933584</v>
       </c>
       <c r="R41" t="n">
-        <v>6987984.581054003</v>
+        <v>6987944.905536451</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111598873</v>
+        <v>111598888</v>
       </c>
       <c r="B42" t="n">
         <v>96348</v>
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>571281.4934181857</v>
+        <v>571280.4021664169</v>
       </c>
       <c r="R42" t="n">
-        <v>6988063.368354584</v>
+        <v>6988092.418886396</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111598888</v>
+        <v>111598873</v>
       </c>
       <c r="B43" t="n">
         <v>96348</v>
@@ -5406,10 +5406,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>571280.4021664169</v>
+        <v>571281.4934181857</v>
       </c>
       <c r="R43" t="n">
-        <v>6988092.418886396</v>
+        <v>6988063.368354584</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>

--- a/artfynd/A 18972-2022.xlsx
+++ b/artfynd/A 18972-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111268465</v>
+        <v>111268761</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>56543</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,35 +696,40 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>103021</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Andersfloberget, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>571112.7410018155</v>
+        <v>571130.9589845988</v>
       </c>
       <c r="R2" t="n">
-        <v>6988041.504683513</v>
+        <v>6988040.539964275</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -793,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111268603</v>
+        <v>111270085</v>
       </c>
       <c r="B3" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +810,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>571130.1388992143</v>
+        <v>571121.5969327085</v>
       </c>
       <c r="R3" t="n">
-        <v>6988036.43340659</v>
+        <v>6988052.601208006</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -906,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111268594</v>
+        <v>111270304</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>90854</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +927,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>2079</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>571130.1388992143</v>
+        <v>571134.5035382169</v>
       </c>
       <c r="R4" t="n">
-        <v>6988036.43340659</v>
+        <v>6988086.500635022</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1019,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111270304</v>
+        <v>111270482</v>
       </c>
       <c r="B5" t="n">
-        <v>90854</v>
+        <v>78107</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1040,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2079</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>571134.5035382169</v>
+        <v>571106.3518894102</v>
       </c>
       <c r="R5" t="n">
-        <v>6988086.500635022</v>
+        <v>6988084.068234245</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1132,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111268637</v>
+        <v>111268594</v>
       </c>
       <c r="B6" t="n">
-        <v>94134</v>
+        <v>78578</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1153,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53</v>
+        <v>6458</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1245,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111270482</v>
+        <v>111270547</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1266,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1291,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>571106.3518894102</v>
+        <v>571094.5908530375</v>
       </c>
       <c r="R7" t="n">
-        <v>6988084.068234245</v>
+        <v>6988060.188313573</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1358,10 +1363,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111270547</v>
+        <v>111268432</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1379,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1404,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>571094.5908530375</v>
+        <v>571112.7410018155</v>
       </c>
       <c r="R8" t="n">
-        <v>6988060.188313573</v>
+        <v>6988041.504683513</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1471,10 +1476,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111268432</v>
+        <v>111268637</v>
       </c>
       <c r="B9" t="n">
-        <v>89686</v>
+        <v>94134</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,21 +1492,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>658</v>
+        <v>53</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>571112.7410018155</v>
+        <v>571130.1388992143</v>
       </c>
       <c r="R9" t="n">
-        <v>6988041.504683513</v>
+        <v>6988036.43340659</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1584,10 +1589,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111270085</v>
+        <v>111268465</v>
       </c>
       <c r="B10" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,21 +1605,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1630,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>571121.5969327085</v>
+        <v>571112.7410018155</v>
       </c>
       <c r="R10" t="n">
-        <v>6988052.601208006</v>
+        <v>6988041.504683513</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1697,10 +1702,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111268761</v>
+        <v>111268603</v>
       </c>
       <c r="B11" t="n">
-        <v>56543</v>
+        <v>78605</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,44 +1714,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>6462</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Andersfloberget, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>571130.9589845988</v>
+        <v>571130.1388992143</v>
       </c>
       <c r="R11" t="n">
-        <v>6988040.539964275</v>
+        <v>6988036.43340659</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111313798</v>
+        <v>111313861</v>
       </c>
       <c r="B14" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2056,25 +2056,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2087,10 +2087,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>571228.7976406375</v>
+        <v>571256.3031592042</v>
       </c>
       <c r="R14" t="n">
-        <v>6988059.94306163</v>
+        <v>6988091.891103382</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2160,10 +2160,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111313831</v>
+        <v>111313798</v>
       </c>
       <c r="B15" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2172,25 +2172,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>571237.6332526817</v>
+        <v>571228.7976406375</v>
       </c>
       <c r="R15" t="n">
-        <v>6988071.947993435</v>
+        <v>6988059.94306163</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111313861</v>
+        <v>111313818</v>
       </c>
       <c r="B16" t="n">
         <v>89686</v>
@@ -2319,10 +2319,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>571256.3031592042</v>
+        <v>571240.5602681458</v>
       </c>
       <c r="R16" t="n">
-        <v>6988091.891103382</v>
+        <v>6988062.926285702</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2392,10 +2392,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111313595</v>
+        <v>111313756</v>
       </c>
       <c r="B17" t="n">
-        <v>89351</v>
+        <v>89686</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2408,21 +2408,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>112</v>
+        <v>658</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2435,10 +2435,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>571132.8156422803</v>
+        <v>571164.4958795183</v>
       </c>
       <c r="R17" t="n">
-        <v>6988059.660764839</v>
+        <v>6988067.167745766</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111313877</v>
+        <v>111313840</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2520,30 +2520,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2551,10 +2552,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>571314.955354398</v>
+        <v>571267.7429622577</v>
       </c>
       <c r="R18" t="n">
-        <v>6988051.835632154</v>
+        <v>6988068.064374451</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2624,10 +2625,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111313631</v>
+        <v>111313831</v>
       </c>
       <c r="B19" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2640,21 +2641,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2667,10 +2668,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>571138.7267770634</v>
+        <v>571237.6332526817</v>
       </c>
       <c r="R19" t="n">
-        <v>6988059.789979875</v>
+        <v>6988071.947993435</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2740,7 +2741,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111313756</v>
+        <v>111313909</v>
       </c>
       <c r="B20" t="n">
         <v>89686</v>
@@ -2783,10 +2784,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>571164.4958795183</v>
+        <v>571382.364105275</v>
       </c>
       <c r="R20" t="n">
-        <v>6988067.167745766</v>
+        <v>6988089.656736836</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2972,10 +2973,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111313818</v>
+        <v>111313631</v>
       </c>
       <c r="B22" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2988,21 +2989,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3015,10 +3016,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>571240.5602681458</v>
+        <v>571138.7267770634</v>
       </c>
       <c r="R22" t="n">
-        <v>6988062.926285702</v>
+        <v>6988059.789979875</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3088,10 +3089,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111313909</v>
+        <v>111313890</v>
       </c>
       <c r="B23" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3104,21 +3105,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3131,10 +3132,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>571382.364105275</v>
+        <v>571354.5411700107</v>
       </c>
       <c r="R23" t="n">
-        <v>6988089.656736836</v>
+        <v>6988072.237880026</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3204,10 +3205,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111313840</v>
+        <v>111313877</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3216,31 +3217,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3248,10 +3248,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>571267.7429622577</v>
+        <v>571314.955354398</v>
       </c>
       <c r="R24" t="n">
-        <v>6988068.064374451</v>
+        <v>6988051.835632154</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3321,10 +3321,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111313890</v>
+        <v>111313595</v>
       </c>
       <c r="B25" t="n">
-        <v>78578</v>
+        <v>89351</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3337,21 +3337,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>112</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3364,10 +3364,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>571354.5411700107</v>
+        <v>571132.8156422803</v>
       </c>
       <c r="R25" t="n">
-        <v>6988072.237880026</v>
+        <v>6988059.660764839</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111438897</v>
+        <v>111439556</v>
       </c>
       <c r="B26" t="n">
         <v>78578</v>
@@ -3478,10 +3478,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>571342.05486291</v>
+        <v>571541.5030949884</v>
       </c>
       <c r="R26" t="n">
-        <v>6988019.26613469</v>
+        <v>6988072.708431445</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111440132</v>
+        <v>111439199</v>
       </c>
       <c r="B27" t="n">
         <v>77515</v>
@@ -3591,10 +3591,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>571561.4085783331</v>
+        <v>571460.5263831713</v>
       </c>
       <c r="R27" t="n">
-        <v>6987995.007176694</v>
+        <v>6988072.746377321</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111440172</v>
+        <v>111439399</v>
       </c>
       <c r="B28" t="n">
         <v>78578</v>
@@ -3704,10 +3704,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>571557.1164776806</v>
+        <v>571513.3871347769</v>
       </c>
       <c r="R28" t="n">
-        <v>6988003.998814187</v>
+        <v>6988089.353432911</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111440455</v>
+        <v>111440357</v>
       </c>
       <c r="B29" t="n">
         <v>78578</v>
@@ -3817,10 +3817,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>571485.2187846474</v>
+        <v>571472.8873933584</v>
       </c>
       <c r="R29" t="n">
-        <v>6987922.006598755</v>
+        <v>6987944.905536451</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111438961</v>
+        <v>111439000</v>
       </c>
       <c r="B30" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3905,21 +3905,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3930,10 +3930,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>571355.5533441483</v>
+        <v>571401.1370697253</v>
       </c>
       <c r="R30" t="n">
-        <v>6987984.581054003</v>
+        <v>6988021.924799537</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111439277</v>
+        <v>111440195</v>
       </c>
       <c r="B31" t="n">
         <v>78578</v>
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>571513.3871347769</v>
+        <v>571540.7114327301</v>
       </c>
       <c r="R31" t="n">
-        <v>6988089.353432911</v>
+        <v>6987984.557469011</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111438823</v>
+        <v>111440172</v>
       </c>
       <c r="B32" t="n">
         <v>78578</v>
@@ -4156,10 +4156,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>571355.5533441483</v>
+        <v>571557.1164776806</v>
       </c>
       <c r="R32" t="n">
-        <v>6987984.581054003</v>
+        <v>6988003.998814187</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111439199</v>
+        <v>111440415</v>
       </c>
       <c r="B33" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4244,21 +4244,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>571460.5263831713</v>
+        <v>571485.2187846474</v>
       </c>
       <c r="R33" t="n">
-        <v>6988072.746377321</v>
+        <v>6987922.006598755</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4341,10 +4341,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111439556</v>
+        <v>111438961</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4357,21 +4357,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4382,10 +4382,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>571541.5030949884</v>
+        <v>571355.5533441483</v>
       </c>
       <c r="R34" t="n">
-        <v>6988072.708431445</v>
+        <v>6987984.581054003</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111439000</v>
+        <v>111440237</v>
       </c>
       <c r="B35" t="n">
         <v>77515</v>
@@ -4495,10 +4495,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>571401.1370697253</v>
+        <v>571532.8559679713</v>
       </c>
       <c r="R35" t="n">
-        <v>6988021.924799537</v>
+        <v>6987969.392762338</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111438342</v>
+        <v>111438897</v>
       </c>
       <c r="B36" t="n">
-        <v>77268</v>
+        <v>78578</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4583,21 +4583,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>571171.3525270248</v>
+        <v>571342.05486291</v>
       </c>
       <c r="R36" t="n">
-        <v>6988003.262354148</v>
+        <v>6988019.26613469</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4680,10 +4680,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111438249</v>
+        <v>111438823</v>
       </c>
       <c r="B37" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4696,21 +4696,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4721,10 +4721,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>571110.4113759904</v>
+        <v>571355.5533441483</v>
       </c>
       <c r="R37" t="n">
-        <v>6988002.384436167</v>
+        <v>6987984.581054003</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111440195</v>
+        <v>111438212</v>
       </c>
       <c r="B38" t="n">
         <v>78578</v>
@@ -4834,10 +4834,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>571540.7114327301</v>
+        <v>571110.4113759904</v>
       </c>
       <c r="R38" t="n">
-        <v>6987984.557469011</v>
+        <v>6988002.384436167</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111438212</v>
+        <v>111438249</v>
       </c>
       <c r="B39" t="n">
-        <v>78578</v>
+        <v>77267</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4922,21 +4922,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5019,10 +5019,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111440237</v>
+        <v>111438342</v>
       </c>
       <c r="B40" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5035,21 +5035,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5060,10 +5060,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>571532.8559679713</v>
+        <v>571171.3525270248</v>
       </c>
       <c r="R40" t="n">
-        <v>6987969.392762338</v>
+        <v>6988003.262354148</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5132,10 +5132,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111440357</v>
+        <v>111440132</v>
       </c>
       <c r="B41" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5148,21 +5148,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>571472.8873933584</v>
+        <v>571561.4085783331</v>
       </c>
       <c r="R41" t="n">
-        <v>6987944.905536451</v>
+        <v>6987995.007176694</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>

--- a/artfynd/A 18972-2022.xlsx
+++ b/artfynd/A 18972-2022.xlsx
@@ -798,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111270085</v>
+        <v>111268637</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>94134</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,21 +814,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>53</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>571121.5969327085</v>
+        <v>571130.1388992143</v>
       </c>
       <c r="R3" t="n">
-        <v>6988052.601208006</v>
+        <v>6988036.43340659</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111270304</v>
+        <v>111270085</v>
       </c>
       <c r="B4" t="n">
-        <v>90854</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,21 +927,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2079</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>571134.5035382169</v>
+        <v>571121.5969327085</v>
       </c>
       <c r="R4" t="n">
-        <v>6988086.500635022</v>
+        <v>6988052.601208006</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111270482</v>
+        <v>111270304</v>
       </c>
       <c r="B5" t="n">
-        <v>78107</v>
+        <v>90854</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,21 +1040,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>2079</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>571106.3518894102</v>
+        <v>571134.5035382169</v>
       </c>
       <c r="R5" t="n">
-        <v>6988084.068234245</v>
+        <v>6988086.500635022</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111268594</v>
+        <v>111268465</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,21 +1153,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>571130.1388992143</v>
+        <v>571112.7410018155</v>
       </c>
       <c r="R6" t="n">
-        <v>6988036.43340659</v>
+        <v>6988041.504683513</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111268432</v>
+        <v>111268603</v>
       </c>
       <c r="B8" t="n">
-        <v>89686</v>
+        <v>78605</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1375,25 +1375,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>658</v>
+        <v>6462</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1404,10 +1404,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>571112.7410018155</v>
+        <v>571130.1388992143</v>
       </c>
       <c r="R8" t="n">
-        <v>6988041.504683513</v>
+        <v>6988036.43340659</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1476,10 +1476,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111268637</v>
+        <v>111268486</v>
       </c>
       <c r="B9" t="n">
-        <v>94134</v>
+        <v>89845</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1488,25 +1488,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>571130.1388992143</v>
+        <v>571112.7410018155</v>
       </c>
       <c r="R9" t="n">
-        <v>6988036.43340659</v>
+        <v>6988041.504683513</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1589,10 +1589,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111268465</v>
+        <v>111270482</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>78107</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1605,21 +1605,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>6453</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1630,10 +1630,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>571112.7410018155</v>
+        <v>571106.3518894102</v>
       </c>
       <c r="R10" t="n">
-        <v>6988041.504683513</v>
+        <v>6988084.068234245</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1702,10 +1702,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111268603</v>
+        <v>111268594</v>
       </c>
       <c r="B11" t="n">
-        <v>78605</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1714,25 +1714,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111268486</v>
+        <v>111268432</v>
       </c>
       <c r="B12" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1827,25 +1827,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1928,10 +1928,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111313898</v>
+        <v>111313781</v>
       </c>
       <c r="B13" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1944,21 +1944,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>571351.9059665259</v>
+        <v>571215.700694268</v>
       </c>
       <c r="R13" t="n">
-        <v>6988109.431611928</v>
+        <v>6988055.567805857</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111313861</v>
+        <v>111313631</v>
       </c>
       <c r="B14" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2060,21 +2060,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2087,10 +2087,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>571256.3031592042</v>
+        <v>571138.7267770634</v>
       </c>
       <c r="R14" t="n">
-        <v>6988091.891103382</v>
+        <v>6988059.789979875</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2160,10 +2160,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111313798</v>
+        <v>111313840</v>
       </c>
       <c r="B15" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2176,26 +2176,27 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2203,10 +2204,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>571228.7976406375</v>
+        <v>571267.7429622577</v>
       </c>
       <c r="R15" t="n">
-        <v>6988059.94306163</v>
+        <v>6988068.064374451</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2276,10 +2277,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111313818</v>
+        <v>111313798</v>
       </c>
       <c r="B16" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2288,25 +2289,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2319,10 +2320,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>571240.5602681458</v>
+        <v>571228.7976406375</v>
       </c>
       <c r="R16" t="n">
-        <v>6988062.926285702</v>
+        <v>6988059.94306163</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2392,10 +2393,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111313756</v>
+        <v>111313890</v>
       </c>
       <c r="B17" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2408,21 +2409,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2435,10 +2436,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>571164.4958795183</v>
+        <v>571354.5411700107</v>
       </c>
       <c r="R17" t="n">
-        <v>6988067.167745766</v>
+        <v>6988072.237880026</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2508,10 +2509,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111313840</v>
+        <v>111313818</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2520,31 +2521,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>571267.7429622577</v>
+        <v>571240.5602681458</v>
       </c>
       <c r="R18" t="n">
-        <v>6988068.064374451</v>
+        <v>6988062.926285702</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111313831</v>
+        <v>111313909</v>
       </c>
       <c r="B19" t="n">
         <v>89686</v>
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>571237.6332526817</v>
+        <v>571382.364105275</v>
       </c>
       <c r="R19" t="n">
-        <v>6988071.947993435</v>
+        <v>6988089.656736836</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111313909</v>
+        <v>111313756</v>
       </c>
       <c r="B20" t="n">
         <v>89686</v>
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>571382.364105275</v>
+        <v>571164.4958795183</v>
       </c>
       <c r="R20" t="n">
-        <v>6988089.656736836</v>
+        <v>6988067.167745766</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111313781</v>
+        <v>111313831</v>
       </c>
       <c r="B21" t="n">
         <v>89686</v>
@@ -2900,10 +2900,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>571215.700694268</v>
+        <v>571237.6332526817</v>
       </c>
       <c r="R21" t="n">
-        <v>6988055.567805857</v>
+        <v>6988071.947993435</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111313631</v>
+        <v>111313877</v>
       </c>
       <c r="B22" t="n">
         <v>78578</v>
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>571138.7267770634</v>
+        <v>571314.955354398</v>
       </c>
       <c r="R22" t="n">
-        <v>6988059.789979875</v>
+        <v>6988051.835632154</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111313890</v>
+        <v>111313898</v>
       </c>
       <c r="B23" t="n">
         <v>78578</v>
@@ -3132,10 +3132,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>571354.5411700107</v>
+        <v>571351.9059665259</v>
       </c>
       <c r="R23" t="n">
-        <v>6988072.237880026</v>
+        <v>6988109.431611928</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3205,10 +3205,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111313877</v>
+        <v>111313861</v>
       </c>
       <c r="B24" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3221,21 +3221,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3248,10 +3248,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>571314.955354398</v>
+        <v>571256.3031592042</v>
       </c>
       <c r="R24" t="n">
-        <v>6988051.835632154</v>
+        <v>6988091.891103382</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3437,10 +3437,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111439556</v>
+        <v>111440237</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3453,21 +3453,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3478,10 +3478,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>571541.5030949884</v>
+        <v>571532.8559679713</v>
       </c>
       <c r="R26" t="n">
-        <v>6988072.708431445</v>
+        <v>6987969.392762338</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3550,10 +3550,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111439199</v>
+        <v>111440172</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3566,21 +3566,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3591,10 +3591,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>571460.5263831713</v>
+        <v>571557.1164776806</v>
       </c>
       <c r="R27" t="n">
-        <v>6988072.746377321</v>
+        <v>6988003.998814187</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111439399</v>
+        <v>111440195</v>
       </c>
       <c r="B28" t="n">
         <v>78578</v>
@@ -3704,10 +3704,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>571513.3871347769</v>
+        <v>571540.7114327301</v>
       </c>
       <c r="R28" t="n">
-        <v>6988089.353432911</v>
+        <v>6987984.557469011</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3889,10 +3889,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111439000</v>
+        <v>111440415</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3905,21 +3905,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3930,10 +3930,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>571401.1370697253</v>
+        <v>571485.2187846474</v>
       </c>
       <c r="R30" t="n">
-        <v>6988021.924799537</v>
+        <v>6987922.006598755</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4002,10 +4002,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111440195</v>
+        <v>111439199</v>
       </c>
       <c r="B31" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4018,21 +4018,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>571540.7114327301</v>
+        <v>571460.5263831713</v>
       </c>
       <c r="R31" t="n">
-        <v>6987984.557469011</v>
+        <v>6988072.746377321</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111440172</v>
+        <v>111439556</v>
       </c>
       <c r="B32" t="n">
         <v>78578</v>
@@ -4156,10 +4156,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>571557.1164776806</v>
+        <v>571541.5030949884</v>
       </c>
       <c r="R32" t="n">
-        <v>6988003.998814187</v>
+        <v>6988072.708431445</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111440415</v>
+        <v>111438961</v>
       </c>
       <c r="B33" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4244,21 +4244,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>571485.2187846474</v>
+        <v>571355.5533441483</v>
       </c>
       <c r="R33" t="n">
-        <v>6987922.006598755</v>
+        <v>6987984.581054003</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4341,10 +4341,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111438961</v>
+        <v>111439000</v>
       </c>
       <c r="B34" t="n">
-        <v>89686</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4357,21 +4357,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4382,10 +4382,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>571355.5533441483</v>
+        <v>571401.1370697253</v>
       </c>
       <c r="R34" t="n">
-        <v>6987984.581054003</v>
+        <v>6988021.924799537</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4454,10 +4454,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111440237</v>
+        <v>111439399</v>
       </c>
       <c r="B35" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4470,21 +4470,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4495,10 +4495,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>571532.8559679713</v>
+        <v>571513.3871347769</v>
       </c>
       <c r="R35" t="n">
-        <v>6987969.392762338</v>
+        <v>6988089.353432911</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111438897</v>
+        <v>111438249</v>
       </c>
       <c r="B36" t="n">
-        <v>78578</v>
+        <v>77267</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4583,21 +4583,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>571342.05486291</v>
+        <v>571110.4113759904</v>
       </c>
       <c r="R36" t="n">
-        <v>6988019.26613469</v>
+        <v>6988002.384436167</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4680,10 +4680,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111438823</v>
+        <v>111440132</v>
       </c>
       <c r="B37" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4696,21 +4696,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4721,10 +4721,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>571355.5533441483</v>
+        <v>571561.4085783331</v>
       </c>
       <c r="R37" t="n">
-        <v>6987984.581054003</v>
+        <v>6987995.007176694</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111438212</v>
+        <v>111438897</v>
       </c>
       <c r="B38" t="n">
         <v>78578</v>
@@ -4834,10 +4834,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>571110.4113759904</v>
+        <v>571342.05486291</v>
       </c>
       <c r="R38" t="n">
-        <v>6988002.384436167</v>
+        <v>6988019.26613469</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111438249</v>
+        <v>111438212</v>
       </c>
       <c r="B39" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4922,21 +4922,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5132,10 +5132,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111440132</v>
+        <v>111438823</v>
       </c>
       <c r="B41" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5148,21 +5148,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>571561.4085783331</v>
+        <v>571355.5533441483</v>
       </c>
       <c r="R41" t="n">
-        <v>6987995.007176694</v>
+        <v>6987984.581054003</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>

--- a/artfynd/A 18972-2022.xlsx
+++ b/artfynd/A 18972-2022.xlsx
@@ -3437,7 +3437,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111440237</v>
+        <v>111439000</v>
       </c>
       <c r="B26" t="n">
         <v>77515</v>
@@ -3478,10 +3478,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>571532.8559679713</v>
+        <v>571401.1370697253</v>
       </c>
       <c r="R26" t="n">
-        <v>6987969.392762338</v>
+        <v>6988021.924799537</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111440172</v>
+        <v>111439399</v>
       </c>
       <c r="B27" t="n">
         <v>78578</v>
@@ -3591,10 +3591,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>571557.1164776806</v>
+        <v>571513.3871347769</v>
       </c>
       <c r="R27" t="n">
-        <v>6988003.998814187</v>
+        <v>6988089.353432911</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111440195</v>
+        <v>111440172</v>
       </c>
       <c r="B28" t="n">
         <v>78578</v>
@@ -3704,10 +3704,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>571540.7114327301</v>
+        <v>571557.1164776806</v>
       </c>
       <c r="R28" t="n">
-        <v>6987984.557469011</v>
+        <v>6988003.998814187</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3776,10 +3776,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111440357</v>
+        <v>111439199</v>
       </c>
       <c r="B29" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3792,21 +3792,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3817,10 +3817,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>571472.8873933584</v>
+        <v>571460.5263831713</v>
       </c>
       <c r="R29" t="n">
-        <v>6987944.905536451</v>
+        <v>6988072.746377321</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111440415</v>
+        <v>111438212</v>
       </c>
       <c r="B30" t="n">
         <v>78578</v>
@@ -3930,10 +3930,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>571485.2187846474</v>
+        <v>571110.4113759904</v>
       </c>
       <c r="R30" t="n">
-        <v>6987922.006598755</v>
+        <v>6988002.384436167</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4002,10 +4002,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111439199</v>
+        <v>111439556</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4018,21 +4018,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>571460.5263831713</v>
+        <v>571541.5030949884</v>
       </c>
       <c r="R31" t="n">
-        <v>6988072.746377321</v>
+        <v>6988072.708431445</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111439556</v>
+        <v>111438249</v>
       </c>
       <c r="B32" t="n">
-        <v>78578</v>
+        <v>77267</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4131,21 +4131,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4156,10 +4156,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>571541.5030949884</v>
+        <v>571110.4113759904</v>
       </c>
       <c r="R32" t="n">
-        <v>6988072.708431445</v>
+        <v>6988002.384436167</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4341,10 +4341,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111439000</v>
+        <v>111440415</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4357,21 +4357,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4382,10 +4382,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>571401.1370697253</v>
+        <v>571485.2187846474</v>
       </c>
       <c r="R34" t="n">
-        <v>6988021.924799537</v>
+        <v>6987922.006598755</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111439399</v>
+        <v>111440195</v>
       </c>
       <c r="B35" t="n">
         <v>78578</v>
@@ -4495,10 +4495,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>571513.3871347769</v>
+        <v>571540.7114327301</v>
       </c>
       <c r="R35" t="n">
-        <v>6988089.353432911</v>
+        <v>6987984.557469011</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111438249</v>
+        <v>111438823</v>
       </c>
       <c r="B36" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4583,21 +4583,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>571110.4113759904</v>
+        <v>571355.5533441483</v>
       </c>
       <c r="R36" t="n">
-        <v>6988002.384436167</v>
+        <v>6987984.581054003</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4680,10 +4680,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111440132</v>
+        <v>111438342</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4696,21 +4696,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4721,10 +4721,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>571561.4085783331</v>
+        <v>571171.3525270248</v>
       </c>
       <c r="R37" t="n">
-        <v>6987995.007176694</v>
+        <v>6988003.262354148</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4793,10 +4793,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111438897</v>
+        <v>111440237</v>
       </c>
       <c r="B38" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4809,21 +4809,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4834,10 +4834,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>571342.05486291</v>
+        <v>571532.8559679713</v>
       </c>
       <c r="R38" t="n">
-        <v>6988019.26613469</v>
+        <v>6987969.392762338</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111438212</v>
+        <v>111440132</v>
       </c>
       <c r="B39" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4922,21 +4922,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4947,10 +4947,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>571110.4113759904</v>
+        <v>571561.4085783331</v>
       </c>
       <c r="R39" t="n">
-        <v>6988002.384436167</v>
+        <v>6987995.007176694</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5019,10 +5019,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111438342</v>
+        <v>111440357</v>
       </c>
       <c r="B40" t="n">
-        <v>77268</v>
+        <v>78578</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5035,21 +5035,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5060,10 +5060,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>571171.3525270248</v>
+        <v>571472.8873933584</v>
       </c>
       <c r="R40" t="n">
-        <v>6988003.262354148</v>
+        <v>6987944.905536451</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111438823</v>
+        <v>111438897</v>
       </c>
       <c r="B41" t="n">
         <v>78578</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>571355.5533441483</v>
+        <v>571342.05486291</v>
       </c>
       <c r="R41" t="n">
-        <v>6987984.581054003</v>
+        <v>6988019.26613469</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>

--- a/artfynd/A 18972-2022.xlsx
+++ b/artfynd/A 18972-2022.xlsx
@@ -3437,10 +3437,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111439000</v>
+        <v>111439399</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3453,21 +3453,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3478,10 +3478,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>571401.1370697253</v>
+        <v>571513.3871347769</v>
       </c>
       <c r="R26" t="n">
-        <v>6988021.924799537</v>
+        <v>6988089.353432911</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111439399</v>
+        <v>111440455</v>
       </c>
       <c r="B27" t="n">
         <v>78578</v>
@@ -3591,10 +3591,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>571513.3871347769</v>
+        <v>571485.2187846474</v>
       </c>
       <c r="R27" t="n">
-        <v>6988089.353432911</v>
+        <v>6987922.006598755</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111440172</v>
+        <v>111439556</v>
       </c>
       <c r="B28" t="n">
         <v>78578</v>
@@ -3704,10 +3704,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>571557.1164776806</v>
+        <v>571541.5030949884</v>
       </c>
       <c r="R28" t="n">
-        <v>6988003.998814187</v>
+        <v>6988072.708431445</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111438212</v>
+        <v>111440195</v>
       </c>
       <c r="B30" t="n">
         <v>78578</v>
@@ -3930,10 +3930,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>571110.4113759904</v>
+        <v>571540.7114327301</v>
       </c>
       <c r="R30" t="n">
-        <v>6988002.384436167</v>
+        <v>6987984.557469011</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4002,10 +4002,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111439556</v>
+        <v>111440237</v>
       </c>
       <c r="B31" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4018,21 +4018,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>571541.5030949884</v>
+        <v>571532.8559679713</v>
       </c>
       <c r="R31" t="n">
-        <v>6988072.708431445</v>
+        <v>6987969.392762338</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4115,10 +4115,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111438249</v>
+        <v>111438897</v>
       </c>
       <c r="B32" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4131,21 +4131,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4156,10 +4156,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>571110.4113759904</v>
+        <v>571342.05486291</v>
       </c>
       <c r="R32" t="n">
-        <v>6988002.384436167</v>
+        <v>6988019.26613469</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111438961</v>
+        <v>111438342</v>
       </c>
       <c r="B33" t="n">
-        <v>89686</v>
+        <v>77268</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4244,21 +4244,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>658</v>
+        <v>228912</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>571355.5533441483</v>
+        <v>571171.3525270248</v>
       </c>
       <c r="R33" t="n">
-        <v>6987984.581054003</v>
+        <v>6988003.262354148</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111440415</v>
+        <v>111438212</v>
       </c>
       <c r="B34" t="n">
         <v>78578</v>
@@ -4382,10 +4382,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>571485.2187846474</v>
+        <v>571110.4113759904</v>
       </c>
       <c r="R34" t="n">
-        <v>6987922.006598755</v>
+        <v>6988002.384436167</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4454,10 +4454,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111440195</v>
+        <v>111438249</v>
       </c>
       <c r="B35" t="n">
-        <v>78578</v>
+        <v>77267</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4470,21 +4470,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4495,10 +4495,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>571540.7114327301</v>
+        <v>571110.4113759904</v>
       </c>
       <c r="R35" t="n">
-        <v>6987984.557469011</v>
+        <v>6988002.384436167</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111438823</v>
+        <v>111440357</v>
       </c>
       <c r="B36" t="n">
         <v>78578</v>
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>571355.5533441483</v>
+        <v>571472.8873933584</v>
       </c>
       <c r="R36" t="n">
-        <v>6987984.581054003</v>
+        <v>6987944.905536451</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4680,10 +4680,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111438342</v>
+        <v>111440132</v>
       </c>
       <c r="B37" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4696,21 +4696,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4721,10 +4721,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>571171.3525270248</v>
+        <v>571561.4085783331</v>
       </c>
       <c r="R37" t="n">
-        <v>6988003.262354148</v>
+        <v>6987995.007176694</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4793,7 +4793,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111440237</v>
+        <v>111439000</v>
       </c>
       <c r="B38" t="n">
         <v>77515</v>
@@ -4834,10 +4834,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>571532.8559679713</v>
+        <v>571401.1370697253</v>
       </c>
       <c r="R38" t="n">
-        <v>6987969.392762338</v>
+        <v>6988021.924799537</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111440132</v>
+        <v>111438823</v>
       </c>
       <c r="B39" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4922,21 +4922,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4947,10 +4947,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>571561.4085783331</v>
+        <v>571355.5533441483</v>
       </c>
       <c r="R39" t="n">
-        <v>6987995.007176694</v>
+        <v>6987984.581054003</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5019,10 +5019,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111440357</v>
+        <v>111438961</v>
       </c>
       <c r="B40" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5035,21 +5035,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5060,10 +5060,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>571472.8873933584</v>
+        <v>571355.5533441483</v>
       </c>
       <c r="R40" t="n">
-        <v>6987944.905536451</v>
+        <v>6987984.581054003</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111438897</v>
+        <v>111440172</v>
       </c>
       <c r="B41" t="n">
         <v>78578</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>571342.05486291</v>
+        <v>571557.1164776806</v>
       </c>
       <c r="R41" t="n">
-        <v>6988019.26613469</v>
+        <v>6988003.998814187</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5245,7 +5245,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111598888</v>
+        <v>111598873</v>
       </c>
       <c r="B42" t="n">
         <v>96348</v>
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>571280.4021664169</v>
+        <v>571281.4934181857</v>
       </c>
       <c r="R42" t="n">
-        <v>6988092.418886396</v>
+        <v>6988063.368354584</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111598873</v>
+        <v>111598888</v>
       </c>
       <c r="B43" t="n">
         <v>96348</v>
@@ -5406,10 +5406,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>571281.4934181857</v>
+        <v>571280.4021664169</v>
       </c>
       <c r="R43" t="n">
-        <v>6988063.368354584</v>
+        <v>6988092.418886396</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>

--- a/artfynd/A 18972-2022.xlsx
+++ b/artfynd/A 18972-2022.xlsx
@@ -3663,10 +3663,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111439556</v>
+        <v>111439199</v>
       </c>
       <c r="B28" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3679,21 +3679,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3704,10 +3704,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>571541.5030949884</v>
+        <v>571460.5263831713</v>
       </c>
       <c r="R28" t="n">
-        <v>6988072.708431445</v>
+        <v>6988072.746377321</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3776,10 +3776,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111439199</v>
+        <v>111439556</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3792,21 +3792,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3817,10 +3817,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>571460.5263831713</v>
+        <v>571541.5030949884</v>
       </c>
       <c r="R29" t="n">
-        <v>6988072.746377321</v>
+        <v>6988072.708431445</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>

--- a/artfynd/A 18972-2022.xlsx
+++ b/artfynd/A 18972-2022.xlsx
@@ -3437,10 +3437,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111439399</v>
+        <v>111439199</v>
       </c>
       <c r="B26" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3453,21 +3453,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3478,10 +3478,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>571513.3871347769</v>
+        <v>571460.5263831713</v>
       </c>
       <c r="R26" t="n">
-        <v>6988089.353432911</v>
+        <v>6988072.746377321</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3550,10 +3550,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111440455</v>
+        <v>111440132</v>
       </c>
       <c r="B27" t="n">
-        <v>78578</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3566,21 +3566,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3591,10 +3591,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>571485.2187846474</v>
+        <v>571561.4085783331</v>
       </c>
       <c r="R27" t="n">
-        <v>6987922.006598755</v>
+        <v>6987995.007176694</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3663,10 +3663,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111439199</v>
+        <v>111438212</v>
       </c>
       <c r="B28" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3679,21 +3679,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3704,10 +3704,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>571460.5263831713</v>
+        <v>571110.4113759904</v>
       </c>
       <c r="R28" t="n">
-        <v>6988072.746377321</v>
+        <v>6988002.384436167</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111439556</v>
+        <v>111439399</v>
       </c>
       <c r="B29" t="n">
         <v>78578</v>
@@ -3817,10 +3817,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>571541.5030949884</v>
+        <v>571513.3871347769</v>
       </c>
       <c r="R29" t="n">
-        <v>6988072.708431445</v>
+        <v>6988089.353432911</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111440195</v>
+        <v>111440415</v>
       </c>
       <c r="B30" t="n">
         <v>78578</v>
@@ -3930,10 +3930,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>571540.7114327301</v>
+        <v>571485.2187846474</v>
       </c>
       <c r="R30" t="n">
-        <v>6987984.557469011</v>
+        <v>6987922.006598755</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111440237</v>
+        <v>111439000</v>
       </c>
       <c r="B31" t="n">
         <v>77515</v>
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>571532.8559679713</v>
+        <v>571401.1370697253</v>
       </c>
       <c r="R31" t="n">
-        <v>6987969.392762338</v>
+        <v>6988021.924799537</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111438897</v>
+        <v>111439556</v>
       </c>
       <c r="B32" t="n">
         <v>78578</v>
@@ -4156,10 +4156,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>571342.05486291</v>
+        <v>571541.5030949884</v>
       </c>
       <c r="R32" t="n">
-        <v>6988019.26613469</v>
+        <v>6988072.708431445</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4228,10 +4228,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111438342</v>
+        <v>111440237</v>
       </c>
       <c r="B33" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4244,21 +4244,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>571171.3525270248</v>
+        <v>571532.8559679713</v>
       </c>
       <c r="R33" t="n">
-        <v>6988003.262354148</v>
+        <v>6987969.392762338</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4341,10 +4341,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111438212</v>
+        <v>111438249</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>77267</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4357,21 +4357,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>6446</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4454,10 +4454,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111438249</v>
+        <v>111438897</v>
       </c>
       <c r="B35" t="n">
-        <v>77267</v>
+        <v>78578</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4470,21 +4470,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6446</v>
+        <v>6458</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4495,10 +4495,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>571110.4113759904</v>
+        <v>571342.05486291</v>
       </c>
       <c r="R35" t="n">
-        <v>6988002.384436167</v>
+        <v>6988019.26613469</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111440357</v>
+        <v>111438342</v>
       </c>
       <c r="B36" t="n">
-        <v>78578</v>
+        <v>77268</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4583,21 +4583,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>228912</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4608,10 +4608,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>571472.8873933584</v>
+        <v>571171.3525270248</v>
       </c>
       <c r="R36" t="n">
-        <v>6987944.905536451</v>
+        <v>6988003.262354148</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4680,10 +4680,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111440132</v>
+        <v>111438823</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4696,21 +4696,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4721,10 +4721,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>571561.4085783331</v>
+        <v>571355.5533441483</v>
       </c>
       <c r="R37" t="n">
-        <v>6987995.007176694</v>
+        <v>6987984.581054003</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4793,10 +4793,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111439000</v>
+        <v>111438961</v>
       </c>
       <c r="B38" t="n">
-        <v>77515</v>
+        <v>89686</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4809,21 +4809,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4834,10 +4834,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>571401.1370697253</v>
+        <v>571355.5533441483</v>
       </c>
       <c r="R38" t="n">
-        <v>6988021.924799537</v>
+        <v>6987984.581054003</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111438823</v>
+        <v>111440195</v>
       </c>
       <c r="B39" t="n">
         <v>78578</v>
@@ -4947,10 +4947,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>571355.5533441483</v>
+        <v>571540.7114327301</v>
       </c>
       <c r="R39" t="n">
-        <v>6987984.581054003</v>
+        <v>6987984.557469011</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5019,10 +5019,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111438961</v>
+        <v>111440357</v>
       </c>
       <c r="B40" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5035,21 +5035,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5060,10 +5060,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>571355.5533441483</v>
+        <v>571472.8873933584</v>
       </c>
       <c r="R40" t="n">
-        <v>6987984.581054003</v>
+        <v>6987944.905536451</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>

--- a/artfynd/A 18972-2022.xlsx
+++ b/artfynd/A 18972-2022.xlsx
@@ -3776,7 +3776,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111439399</v>
+        <v>111440415</v>
       </c>
       <c r="B29" t="n">
         <v>78578</v>
@@ -3817,10 +3817,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>571513.3871347769</v>
+        <v>571485.2187846474</v>
       </c>
       <c r="R29" t="n">
-        <v>6988089.353432911</v>
+        <v>6987922.006598755</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111440415</v>
+        <v>111439399</v>
       </c>
       <c r="B30" t="n">
         <v>78578</v>
@@ -3930,10 +3930,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>571485.2187846474</v>
+        <v>571513.3871347769</v>
       </c>
       <c r="R30" t="n">
-        <v>6987922.006598755</v>
+        <v>6988089.353432911</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111438823</v>
+        <v>111440195</v>
       </c>
       <c r="B37" t="n">
         <v>78578</v>
@@ -4721,10 +4721,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>571355.5533441483</v>
+        <v>571540.7114327301</v>
       </c>
       <c r="R37" t="n">
-        <v>6987984.581054003</v>
+        <v>6987984.557469011</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4793,10 +4793,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111438961</v>
+        <v>111440357</v>
       </c>
       <c r="B38" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4809,21 +4809,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4834,10 +4834,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>571355.5533441483</v>
+        <v>571472.8873933584</v>
       </c>
       <c r="R38" t="n">
-        <v>6987984.581054003</v>
+        <v>6987944.905536451</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111440195</v>
+        <v>111438823</v>
       </c>
       <c r="B39" t="n">
         <v>78578</v>
@@ -4947,10 +4947,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>571540.7114327301</v>
+        <v>571355.5533441483</v>
       </c>
       <c r="R39" t="n">
-        <v>6987984.557469011</v>
+        <v>6987984.581054003</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5019,10 +5019,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111440357</v>
+        <v>111438961</v>
       </c>
       <c r="B40" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5035,21 +5035,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5060,10 +5060,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>571472.8873933584</v>
+        <v>571355.5533441483</v>
       </c>
       <c r="R40" t="n">
-        <v>6987944.905536451</v>
+        <v>6987984.581054003</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>

--- a/artfynd/A 18972-2022.xlsx
+++ b/artfynd/A 18972-2022.xlsx
@@ -5245,7 +5245,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111598873</v>
+        <v>111598888</v>
       </c>
       <c r="B42" t="n">
         <v>96348</v>
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>571281.4934181857</v>
+        <v>571280.4021664169</v>
       </c>
       <c r="R42" t="n">
-        <v>6988063.368354584</v>
+        <v>6988092.418886396</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111598888</v>
+        <v>111598873</v>
       </c>
       <c r="B43" t="n">
         <v>96348</v>
@@ -5406,10 +5406,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>571280.4021664169</v>
+        <v>571281.4934181857</v>
       </c>
       <c r="R43" t="n">
-        <v>6988092.418886396</v>
+        <v>6988063.368354584</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>

--- a/artfynd/A 18972-2022.xlsx
+++ b/artfynd/A 18972-2022.xlsx
@@ -5245,7 +5245,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111598888</v>
+        <v>111598873</v>
       </c>
       <c r="B42" t="n">
         <v>96348</v>
@@ -5289,10 +5289,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>571280.4021664169</v>
+        <v>571281.4934181857</v>
       </c>
       <c r="R42" t="n">
-        <v>6988092.418886396</v>
+        <v>6988063.368354584</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111598873</v>
+        <v>111598888</v>
       </c>
       <c r="B43" t="n">
         <v>96348</v>
@@ -5406,10 +5406,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>571281.4934181857</v>
+        <v>571280.4021664169</v>
       </c>
       <c r="R43" t="n">
-        <v>6988063.368354584</v>
+        <v>6988092.418886396</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
